--- a/全局定位模块材料清单.xlsx
+++ b/全局定位模块材料清单.xlsx
@@ -1,39 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/mobile/Containers/Data/Application/482B8E06-DE00-44D2-8AAD-76F4613C22E3/Library/Application Support/Drafts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STM32\code\ops-9\ops9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A0781EC-AD01-1842-91E6-1C2967B59D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF074840-5F26-4AF9-B5FA-848F202E6450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>序号</t>
   </si>
@@ -59,27 +46,12 @@
     <t>备注</t>
   </si>
   <si>
-    <t>【淘宝】限时淘金币抵1.9元 https://e.tb.cn/h.SVD8wqoudDLnU6A?tk=c2Uv4x8kYIJ CZ028 「mini迷你方向正交解码测速1024线智能车机器人微型增量编码器」
-点击链接直接打开 或者 淘宝搜索直接打开</t>
-  </si>
-  <si>
     <t>全向轮</t>
   </si>
   <si>
-    <t>【淘宝】假一赔四 https://e.tb.cn/h.S4ovSI0Hsin0lhr?tk=TiCE4x8Mkjz tG-#22&gt;lD 「【分体连轴器】58mm全向轮分体联轴器 福来轮 可选内径3 4 5 6mm」
-点击链接直接打开 或者 淘宝搜索直接打开</t>
-  </si>
-  <si>
-    <t>3mm联轴器，因为我之前用的没有货了，这里用另一家，但是可能存在物品间的误差，有做测试的可以反馈一下</t>
-  </si>
-  <si>
     <t>陀螺仪</t>
   </si>
   <si>
-    <t>【淘宝】https://e.tb.cn/h.S4LanpLHyeDAwJQ?tk=zzAY4x8IgxT CZ057 「维特智能高精度旋转角倾角传感器Z轴串口通讯无漂移500Hz HWT101」
-点击链接直接打开 或者 淘宝搜索直接打开</t>
-  </si>
-  <si>
     <t>裸片，可以根据需求换更便宜的，但是要注意引脚定义，我这里需求是精度高，所以直接选用这一款了</t>
   </si>
   <si>
@@ -89,126 +61,204 @@
     <t>个人方案（并非价格最低，可以根据备注更改方案）</t>
   </si>
   <si>
-    <t>xt30</t>
-  </si>
-  <si>
     <t>以下部分可以看需求考虑（直接用串口供电则不需要）</t>
   </si>
   <si>
-    <t>铝柱</t>
-  </si>
-  <si>
-    <t>【淘宝】https://e.tb.cn/h.SVDCH2YtbsYqprx?tk=dzXA4x8zqKU MF287 「供应航模支架铝柱M3连接拉杆支撑柱双通螺柱空心铝管航模铝柱」
-点击链接直接打开 或者 淘宝搜索直接打开</t>
-  </si>
-  <si>
     <t>注意铝柱因为存在公差，最好买同款，但是并非最优的，因为这家铝柱有刷漆，所以需要装上之后去磨合一下</t>
   </si>
   <si>
-    <t>深沟球</t>
-  </si>
-  <si>
     <t>mcu控制器</t>
   </si>
   <si>
     <t>MR104ZZ 4*10*4mm</t>
   </si>
   <si>
-    <t>【淘宝】https://e.tb.cn/h.SVxb9gdas1qIsuw?tk=KUkH4xj1hGY CZ009 「微型深沟球薄壁小轴承MR104Z ZZ L-1040ZZ内径4mm外径10mm厚度4mm」
-点击链接直接打开 或者 淘宝搜索直接打开</t>
-  </si>
-  <si>
-    <t>【淘宝】https://e.tb.cn/h.SVx19G0k6sx0x4f?tk=8mNN4xjccyq CZ225 「原装正品ARM 核心板 STM32F103C8T6开发板 系统板 STM32」
-点击链接直接打开 或者 淘宝搜索直接打开</t>
-  </si>
-  <si>
-    <t>c8t6</t>
-  </si>
-  <si>
-    <t>降压</t>
-  </si>
-  <si>
-    <t>【淘宝】7天无理由退货 https://e.tb.cn/h.SVL7XgsAu4WBh1z?tk=df354xj20LV CZ009 「3A可调降压模块DC-DC稳压电源 MP1584EN 超小体积 超LM2596」
-点击链接直接打开 或者 淘宝搜索直接打开</t>
-  </si>
-  <si>
-    <t>推力滚针</t>
-  </si>
-  <si>
-    <t>【淘宝】假一赔四 https://e.tb.cn/h.S40mo57k9TdGVXC?tk=F3fo4xjVWpK CZ356 「平面推力滚针轴承超薄大全4/5/6/8/10/12/15/17/18/20/25/30/35」
-点击链接直接打开 或者 淘宝搜索直接打开</t>
-  </si>
-  <si>
     <t>全钢0414+2AS</t>
   </si>
   <si>
-    <t>直线轴承</t>
-  </si>
-  <si>
-    <t>【淘宝】https://e.tb.cn/h.S4LP98yMEIbSYK7?tk=UvNk4xjfKs9 CZ057 「直线运动轴承LM3 4 5 6 8 10 12 16 20 25 30 35 40 50 60UU 进口」
-点击链接直接打开 或者 淘宝搜索直接打开</t>
-  </si>
-  <si>
     <t>LM5UU 5*10*15</t>
   </si>
   <si>
-    <t>gh1.25母座</t>
-  </si>
-  <si>
-    <t>【淘宝】限时满98减3 https://e.tb.cn/h.SVLlSiSRbcwDDFK?tk=nxYD4xjTAxq CZ028 「GH1.25 2P/3/4/5/6/7/8/10P立贴 1.25mm间距连接器带扣带锁接插件」
-点击链接直接打开 或者 淘宝搜索直接打开</t>
-  </si>
-  <si>
     <t>立卧都可以看自己需求</t>
   </si>
   <si>
-    <t>【淘宝】https://e.tb.cn/h.SVLNwvFhl7Hgb63?tk=VGpN4xjS4QT CZ001 「Amass艾迈斯 XT60U/60H/PW/PB/PT/L系列公母大电流插头航模锂电池」
-点击链接直接打开 或者 淘宝搜索直接打开</t>
-  </si>
-  <si>
-    <t>平头螺钉</t>
-  </si>
-  <si>
-    <t>【淘宝】https://e.tb.cn/h.S40sBXK9v2jAn0z?tk=KX8z4xji8N2 HU591 「304不锈钢薄头内六角螺丝平头大头扁头螺钉CM M2M2.5M3M4M5M6M8L」
-点击链接直接打开 或者 淘宝搜索直接打开</t>
-  </si>
-  <si>
-    <t>弹簧</t>
-  </si>
-  <si>
-    <t>【淘宝】退货运费险 https://e.tb.cn/h.SVxP1NGvMUbJfYy?tk=Xb4f4xjlNVG CA381 「弹簧强力压力大弹黄定制减震不锈钢304钢压缩回位Y型小压簧订定做」
-点击链接直接打开 或者 淘宝搜索直接打开</t>
-  </si>
-  <si>
     <t>0.4线径，可以换0.5或者0.3</t>
   </si>
   <si>
-    <t>M3*8
+    <t>链接（仅作参考）</t>
+  </si>
+  <si>
+    <t>M4*20
+M3*8
 M2*10
 M2*6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铝柱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=719155904600&amp;mi_id=0000e6AMSj84ouikJoVRFQ1QLWMFvagsZ6T982GnRwnNR6A&amp;spm=tbpc.boughtlist.suborder_itempic.d719155904600.edaa2e8dVdfx3X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M4*35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?from=cart&amp;id=756995416829&amp;mi_id=0000oKIkXO-2Umw_vcKb7xgR-g3YyJcDV_nHWVRJEQnpcSE&amp;skuId=5835440637774&amp;spm=a1z0d.6639537%2F202410.item.d756995416829.350b7484b1BsZW&amp;upStreamPrice=3060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=625215461363&amp;mi_id=0000Jzp4JvAveCzdkrDhMjKayCa6KUOhWmSr58DhR08WYMY&amp;spm=tbpc.boughtlist.suborder_itempic.d625215461363.5ea12e8dXR4ZoB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3mm联轴器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=587961204951&amp;mi_id=00007KAVRmcSOrpe_yPwSE2gWXca-xmGTelpWIbKumCZ30w&amp;spm=tbpc.boughtlist.suborder_itempic.d587961204951.5ea12e8dXR4ZoB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铝柱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=775573343427&amp;mi_id=00002RS6I5wwZAd8BBpk5KAkfgWsPqmfjluqm4P-FpV2dgE&amp;spm=tbpc.boughtlist.suborder_itempic.d775573343427.5ea12e8dXR4ZoB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=679227834271&amp;mi_id=00005ZMT24aLHRtw-kx11erZ3HAbxEEBNIRfmvfk7x4aLOg&amp;spm=tbpc.boughtlist.suborder_itempic.d679227834271.5ea12e8dXR4ZoB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c8t6版型都一样的都可以</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直线轴承</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=598752895908&amp;mi_id=0000CTZyJCG25Od7I49WLvn6cfFQm3Uco7c-SsQegL1xvuo&amp;spm=tbpc.boughtlist.suborder_itempic.d598752895908.5ea12e8dXR4ZoB&amp;sku_properties=122276018%3A20213</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深沟球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=627322360377&amp;mi_id=0000HtbkO6p8lajYrmb7q0l043nh0xMUHLfkW0VEHhegmWU&amp;spm=tbpc.boughtlist.suborder_itempic.d627322360377.5ea12e8dXR4ZoB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推力滚针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=717424513282&amp;mi_id=0000ISAV3kvs1LMaaix25voo0roIMP7jTu7MTU8SIVJITE0&amp;spm=tbpc.boughtlist.suborder_itempic.d717424513282.5ea12e8dXR4ZoB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gh1.25母座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=622151561707&amp;mi_id=00006rdft68E0XMELhmeLzkAYgwJ8DKaZ9WBsp2U97H-kfI&amp;spm=tbpc.boughtlist.suborder_itempic.d622151561707.5f6f2e8dNNGuwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平头螺钉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=624733978863&amp;mi_id=00008JLrXPIrPNq7LJWnIIYLOwGsadVlQR_i6Yqb4hfw8CA&amp;spm=tbpc.boughtlist.suborder_itempic.d624733978863.5f6f2e8dNNGuwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹簧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=575363698316&amp;mi_id=0000vnl5sJ1IZO6j5Woepu4JBoKyDOgeuaAW-cf6hy_dSLU&amp;spm=tbpc.boughtlist.suborder_itempic.d575363698316.5f6f2e8dNNGuwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2.54排母</t>
-  </si>
-  <si>
-    <t>【淘宝】假一赔四 https://e.tb.cn/h.S4LB1EfIbY5kE91?tk=cU1o4xjKbee MF278 「单排母座盒装 2.54mm单排插针插座连接器PCB板组合套件8种120pcs」
-点击链接直接打开 或者 淘宝搜索直接打开</t>
-  </si>
-  <si>
-    <t>自己有的话就不用了</t>
-  </si>
-  <si>
-    <t>链接（仅作参考）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=668600526597&amp;mi_id=0000BWqyd-8wgmIEkxaDZm-iML8PNZffGmUWavXbdL2_f60&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.5f6f2e8dNNGuwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20P，长了直接剪刀剪了就好了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.54排针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=656495617585&amp;mi_id=0000dwP13Pk8qf_h5JMHV83NZT0X1JW7R2rCAtHxrKUbB9g&amp;spm=tbpc.boughtlist.suborder_itempic.d656495617585.5f6f2e8dNNGuwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单排1X40P，长了也是剪了就好了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=522572489248&amp;mi_id=0000ZUDWcugJ9fr1azET7seB83C0FERB2Wg8XpaZVhnklNI&amp;spm=tbpc.boughtlist.suborder_itempic.d522572489248.5f6f2e8dNNGuwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3A超小模块/固定输出5V/D-SUN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xt30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XT30PW-M卧式焊板(公头）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?from=cart&amp;id=614438530441&amp;mi_id=00007GzgwCnc1PvhRwwggSuZxYhBIZgutZz2IKL8Nhas22o&amp;skuId=5691715989849&amp;spm=a1z0d.6639537%2F202410.item.d614438530441.350b7484UFqOu9&amp;upStreamPrice=155</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -232,8 +282,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -242,17 +295,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -564,25 +618,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C01B78-34B2-0648-AE77-5B33DEDB2A08}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.31640625" style="1"/>
-    <col min="2" max="2" width="15.140625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="9.31640625" style="1"/>
-    <col min="6" max="6" width="17.2109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.31640625" style="2"/>
-    <col min="8" max="16384" width="9.31640625" style="1"/>
+    <col min="1" max="1" width="9.33203125" style="1"/>
+    <col min="2" max="2" width="15.109375" style="1" customWidth="1"/>
+    <col min="3" max="5" width="9.33203125" style="1"/>
+    <col min="6" max="6" width="33.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="34.5546875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -591,7 +645,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -608,13 +662,13 @@
         <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -632,7 +686,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="276" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -646,46 +700,46 @@
         <v>106</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E18" si="0">C4*D4</f>
+        <f t="shared" ref="E4:E20" si="0">C4*D4</f>
         <v>212</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="252.75" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>36.6</v>
+        <v>30.6</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>73.2</v>
+        <v>61.2</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="264" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -698,18 +752,18 @@
         <v>337</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="252.75" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1">
         <v>8</v>
@@ -722,13 +776,13 @@
         <v>5.44</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="252.75" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -736,239 +790,327 @@
         <v>23</v>
       </c>
       <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>15.2</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D9" s="1">
         <v>9.5</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E9" s="1">
         <f t="shared" si="0"/>
         <v>9.5</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="252.75" x14ac:dyDescent="0.15">
-      <c r="B9" s="1" t="s">
+      <c r="F9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="1">
+    </row>
+    <row r="10" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="D9" s="1">
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="1">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1">
         <v>2.8</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E10" s="1">
         <f t="shared" si="0"/>
         <v>22.4</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="276" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="G10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="1">
         <v>2</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D11" s="1">
         <v>0.6</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E11" s="1">
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="264" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="F11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="1">
         <v>5</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D12" s="1">
         <v>0.2</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E12" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="287.25" x14ac:dyDescent="0.15">
-      <c r="B12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="E12" s="1">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
       <c r="F12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="252.75" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1">
-        <v>4</v>
+        <v>0.1</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>0.1</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="276" x14ac:dyDescent="0.15">
+      <c r="G13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
       <c r="B14" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D14" s="1">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="264" x14ac:dyDescent="0.15">
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C16" s="1">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="1">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
+        <v>2.58</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="1">
-        <v>16.47</v>
-      </c>
-      <c r="E15" s="1">
-        <f t="shared" si="0"/>
-        <v>16.47</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" ht="287.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="1">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="1">
+      <c r="D19" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="0"/>
+        <v>3.9</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="1">
-        <v>3.9</v>
-      </c>
-      <c r="E17" s="1">
-        <f t="shared" si="0"/>
-        <v>3.9</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="264" x14ac:dyDescent="0.15">
-      <c r="A18" s="1">
-        <v>6</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E18" s="1">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E19" s="1">
-        <f>SUM(E3:E15)+SUM(E17:E18)</f>
-        <v>769.71000000000015</v>
+      <c r="D20" s="1">
+        <v>1.55</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="0"/>
+        <v>1.55</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E21" s="1">
+        <f>SUM(E3:E16)+SUM(E19:E20)</f>
+        <v>760.49000000000024</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A18:G18"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F8" r:id="rId1" xr:uid="{152A9AEC-1815-4821-8A08-7BE21BF0B747}"/>
+    <hyperlink ref="F5" r:id="rId2" xr:uid="{F62E1D59-A97C-446B-916C-CD9979C614ED}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{05477793-7E88-43B1-8A3E-9FFF25E2CB80}"/>
+    <hyperlink ref="F6" r:id="rId4" xr:uid="{81100E60-170A-4C95-B09D-19C881CBF7AB}"/>
+    <hyperlink ref="F7" r:id="rId5" xr:uid="{7C59D743-4BCD-4066-81F1-B4A057D06D31}"/>
+    <hyperlink ref="F9" r:id="rId6" xr:uid="{DAA26116-B999-48EE-9FD3-D343A80FF0BC}"/>
+    <hyperlink ref="F10" r:id="rId7" xr:uid="{5D26CBA8-70EC-463E-8469-A89785EB1324}"/>
+    <hyperlink ref="F11" r:id="rId8" xr:uid="{34B2004B-9590-4D8E-B771-C00CB6AFD0CD}"/>
+    <hyperlink ref="F12" r:id="rId9" xr:uid="{824AF6CA-00B2-4E8B-95B6-3C03C982EE73}"/>
+    <hyperlink ref="F13" r:id="rId10" xr:uid="{3375F37D-7373-46FA-8C25-59B3DA266D54}"/>
+    <hyperlink ref="F14" r:id="rId11" xr:uid="{85327A85-36ED-4E3F-9D2F-8CE718360EB7}"/>
+    <hyperlink ref="F15" r:id="rId12" xr:uid="{35053F5E-BADB-47A9-8BB7-9EBB8649871C}"/>
+    <hyperlink ref="F16" r:id="rId13" xr:uid="{E5E3256D-8593-4568-87B7-3D06266A8A44}"/>
+    <hyperlink ref="F17" r:id="rId14" xr:uid="{3E6BB314-3193-469D-8FAD-CD767669AF22}"/>
+    <hyperlink ref="F19" r:id="rId15" xr:uid="{D4E5BEFB-FA7B-402D-B0BE-ED67BCCECF55}"/>
+    <hyperlink ref="F20" r:id="rId16" xr:uid="{93451804-2F3E-45DF-AA86-BF2DCD758071}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/全局定位模块材料清单.xlsx
+++ b/全局定位模块材料清单.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STM32\code\ops-9\ops9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF074840-5F26-4AF9-B5FA-848F202E6450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0016B889-1F23-4CBB-88B0-51D6E1C637E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="24768" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,9 +64,6 @@
     <t>以下部分可以看需求考虑（直接用串口供电则不需要）</t>
   </si>
   <si>
-    <t>注意铝柱因为存在公差，最好买同款，但是并非最优的，因为这家铝柱有刷漆，所以需要装上之后去磨合一下</t>
-  </si>
-  <si>
     <t>mcu控制器</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
   </si>
   <si>
     <t>立卧都可以看自己需求</t>
-  </si>
-  <si>
-    <t>0.4线径，可以换0.5或者0.3</t>
   </si>
   <si>
     <t>链接（仅作参考）</t>
@@ -232,6 +226,16 @@
   </si>
   <si>
     <t>https://item.taobao.com/item.htm?from=cart&amp;id=614438530441&amp;mi_id=00007GzgwCnc1PvhRwwggSuZxYhBIZgutZz2IKL8Nhas22o&amp;skuId=5691715989849&amp;spm=a1z0d.6639537%2F202410.item.d614438530441.350b7484UFqOu9&amp;upStreamPrice=155</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M3*35
+注意铝柱因为存在公差，最好买同款，但是并非最优的，因为这家铝柱有刷漆，所以需要装上之后去磨合一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.4线径，可以换0.5或者0.3
+客服备注：0.4*6*15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -620,21 +624,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C01B78-34B2-0648-AE77-5B33DEDB2A08}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.34765625" defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="1"/>
-    <col min="2" max="2" width="15.109375" style="1" customWidth="1"/>
-    <col min="3" max="5" width="9.33203125" style="1"/>
-    <col min="6" max="6" width="33.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="34.5546875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="9.34765625" style="1"/>
+    <col min="2" max="2" width="15.09765625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="9.34765625" style="1"/>
+    <col min="6" max="6" width="33.8984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="34.546875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.34765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -645,7 +649,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -662,13 +666,13 @@
         <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -686,7 +690,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="70.5" x14ac:dyDescent="0.5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -704,13 +708,13 @@
         <v>212</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="98.7" x14ac:dyDescent="0.5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -728,13 +732,13 @@
         <v>61.2</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" ht="84.6" x14ac:dyDescent="0.5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -752,18 +756,18 @@
         <v>337</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="84.6" x14ac:dyDescent="0.5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1">
         <v>8</v>
@@ -776,18 +780,18 @@
         <v>5.44</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="70.5" x14ac:dyDescent="0.5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1">
         <v>4</v>
@@ -800,18 +804,18 @@
         <v>15.2</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="84.6" x14ac:dyDescent="0.5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -824,18 +828,18 @@
         <v>9.5</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="98.7" x14ac:dyDescent="0.5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1">
         <v>8</v>
@@ -848,18 +852,18 @@
         <v>22.4</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="70.5" x14ac:dyDescent="0.5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
@@ -872,18 +876,18 @@
         <v>1.2</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="70.5" x14ac:dyDescent="0.5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1">
         <v>5</v>
@@ -896,18 +900,18 @@
         <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="70.5" x14ac:dyDescent="0.5">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -920,18 +924,18 @@
         <v>0.1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="70.5" x14ac:dyDescent="0.5">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1">
         <v>3</v>
@@ -944,18 +948,18 @@
         <v>12</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="84.6" x14ac:dyDescent="0.5">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1">
         <v>10</v>
@@ -968,18 +972,18 @@
         <v>4</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="84.6" x14ac:dyDescent="0.5">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C16" s="1">
         <v>6</v>
@@ -992,18 +996,18 @@
         <v>3</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="70.5" x14ac:dyDescent="0.5">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C17" s="1">
         <v>6</v>
@@ -1016,13 +1020,13 @@
         <v>2.58</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
@@ -1033,12 +1037,12 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="70.5" x14ac:dyDescent="0.5">
       <c r="A19" s="1">
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -1051,18 +1055,18 @@
         <v>3.9</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="98.7" x14ac:dyDescent="0.5">
       <c r="A20" s="1">
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -1075,13 +1079,13 @@
         <v>1.55</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
       <c r="E21" s="1">
         <f>SUM(E3:E16)+SUM(E19:E20)</f>
         <v>760.49000000000024</v>
